--- a/TC_input_001.xlsx
+++ b/TC_input_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_testing_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96873070-DD00-481C-8B97-E18D63C1D7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB21657E-D854-4385-83EF-8D47C9D48081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DA76B70-AFB9-45A8-87CD-489297BE56E7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -58,6 +58,27 @@
   </si>
   <si>
     <t>decision table</t>
+  </si>
+  <si>
+    <t>1. Valid Credentials:</t>
+  </si>
+  <si>
+    <t>Username: [Your valid username]</t>
+  </si>
+  <si>
+    <t>Password: [Your valid password]</t>
+  </si>
+  <si>
+    <t>2. Invalid Credentials:</t>
+  </si>
+  <si>
+    <t>Invalid Username: [An invalid username]</t>
+  </si>
+  <si>
+    <t>Invalid Password: [An invalid password]</t>
+  </si>
+  <si>
+    <t>User remains on the login page</t>
   </si>
 </sst>
 </file>
@@ -101,9 +122,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,17 +448,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C7B3DA-C831-4498-A9FB-76AC20F6DAF7}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,6 +493,45 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
